--- a/СТАТИСТИКА/нормализованное-потребление-27.01.2025.xlsx
+++ b/СТАТИСТИКА/нормализованное-потребление-27.01.2025.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,11 +476,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 5 кг с отвердителем ТЭТА 500 гр</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,81 +503,81 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>756839391</v>
+        <v>677953003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для столешниц MONOLIT 15 кг (прозрачная, толстослойная, жидкая)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>756839391</v>
+        <v>1363095178</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>756839391</v>
+        <v>990330535</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>678320094</v>
+        <v>677981434</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -586,113 +586,113 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола ЭД-20 1 кг с отвердителем ПЭПА 100 гр</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>677942539</v>
+        <v>677926124</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1363095178</v>
+        <v>677942539</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ОМСК_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TEPOLV-6</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для столешниц MONOLIT 3 кг (прозрачная, толстослойная, жидкая)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>990330535</v>
+        <v>955556860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>735729922</v>
+        <v>1742838765</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>677942539</v>
+        <v>679839793</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -701,177 +701,177 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>955556860</v>
+        <v>696778824</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TS-1-teta100</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>678360471</v>
+        <v>1364320919</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>955546493</v>
+        <v>696778824</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>756839391</v>
+        <v>1364320919</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>678320094</v>
+        <v>990330535</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>756835534</v>
+        <v>1225355776</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -880,7 +880,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -894,12 +894,12 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>679839793</v>
+        <v>1742838765</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -908,292 +908,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>696778824</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>EPO3D-750</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1364320919</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TEPOLV-15</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>696778824</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>САМАРА_РФЦ</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>EPO3D-750</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1364320919</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>НОГИНСК_РФЦ</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>TEPOLV-15</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>990330535</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Санкт_Петербург_РФЦ</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>naborgalaxy</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>696778985</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Санкт_Петербург_РФЦ</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>EPO3D-1.5</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>756839391</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ED-20-TETA5</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>677883754</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MN6000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>756835534</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ED-20-TETA1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1225355776</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>nabor_sea2.0</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1742838765</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>nabor-morskoy</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1742838765</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Санкт_Петербург_РФЦ</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>nabor-morskoy</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
   </sheetData>
